--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>471046.1664536684</v>
+        <v>468148.7381960315</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>18.21008304703227</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6361855654818186</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>18.21008304703227</v>
+        <v>13.8871982085107</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>10.78545761116195</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.38369583986568</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.21008304703227</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.2100830470295</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>18.21008304703227</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>16.03944114782601</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>18.2100830470295</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.54112977924432</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>18.2100830470295</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.4983113685792794</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>18.21008304703227</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -905,46 +905,46 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>23.13715520272814</v>
       </c>
       <c r="G5" t="n">
+        <v>13.70732065777799</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45.63689302957772</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17.14684397594775</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.810057396252972</v>
+      </c>
+      <c r="Q5" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="H5" t="n">
-        <v>44.76721749344848</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>16.44799022605971</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>12.84193026251984</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>81.30196747731281</v>
       </c>
       <c r="G8" t="n">
-        <v>13.38870434448781</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H8" t="n">
-        <v>79.63194910057825</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="I8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>69.17729809440617</v>
+      </c>
+      <c r="F9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>34.42021277233694</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>30.08282103867671</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>157.2157096132854</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534533</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>43.58035547796231</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881757</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.91797013962</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.24682109862</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590281</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983798</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314418</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>51.49274147538247</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>3.303369838711035</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.5929178415338</v>
+        <v>410.592917841534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>145.2811108569488</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389962</v>
+        <v>28.90056660389973</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4786139429425</v>
+        <v>202.4786139429426</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9688673339483</v>
+        <v>250.9688673339484</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>149.5886794407412</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>22.78693049665634</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8783163942142</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4436781526117</v>
+        <v>143.4436781526119</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.91693778434411</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>81.11174209768883</v>
+        <v>82.30038209396112</v>
       </c>
       <c r="S16" t="n">
-        <v>187.1986443782761</v>
+        <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9187567628734</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G17" t="n">
-        <v>378.554204024752</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179264</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116142</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188908</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510294</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>42.04747230221577</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
         <v>254.5831063612652</v>
@@ -2065,10 +2065,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H20" t="n">
         <v>255.2416659947559</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295707</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
-        <v>296.142056117922</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X20" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116142</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188893</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.810845670719</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
         <v>254.5831063612652</v>
@@ -2302,10 +2302,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2327,10 +2327,10 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H23" t="n">
         <v>255.2416659947559</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2375,16 +2375,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116144</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.86620090218895</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D25" t="n">
         <v>117.0052706659985</v>
@@ -2488,13 +2488,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H25" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T25" t="n">
         <v>186.4872700401421</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112668</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
         <v>333.6626894187938</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684692</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.320167720048</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894965</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G26" t="n">
         <v>378.5542040247499</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295192</v>
+        <v>60.32014642295188</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545725</v>
@@ -2618,7 +2618,7 @@
         <v>317.6307663651992</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262553</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y26" t="n">
         <v>354.6277363038398</v>
@@ -2713,7 +2713,7 @@
         <v>148.2217778297235</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464141</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D28" t="n">
         <v>117.0052706659986</v>
@@ -2722,16 +2722,16 @@
         <v>114.8237602943554</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707129</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510284</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442999</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453029</v>
+        <v>54.52629139452813</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221594</v>
+        <v>42.04747230221589</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424835</v>
@@ -2776,7 +2776,7 @@
         <v>254.9127959843772</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368234</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
         <v>186.974450999881</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112669</v>
       </c>
       <c r="C29" t="n">
         <v>333.6626894187938</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200481</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894977</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247499</v>
+        <v>378.55420402475</v>
       </c>
       <c r="H29" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295188</v>
+        <v>60.32014642295195</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545726</v>
       </c>
       <c r="U29" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645673</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179211</v>
+        <v>296.1420561179212</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651993</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262553</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038399</v>
       </c>
     </row>
     <row r="30">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297236</v>
       </c>
       <c r="C31" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464141</v>
       </c>
       <c r="D31" t="n">
         <v>117.0052706659986</v>
@@ -2959,16 +2959,16 @@
         <v>114.8237602943554</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707148</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510284</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442999</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453025</v>
+        <v>54.52629139453032</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221589</v>
+        <v>42.04747230221597</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424835</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401422</v>
+        <v>186.4872700401379</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612654</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716143</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843773</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368234</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998811</v>
       </c>
     </row>
     <row r="32">
@@ -3205,7 +3205,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139452966</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221583</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424834</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424834</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295186</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943529</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453023</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221588</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3749,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295186</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D43" t="n">
         <v>117.0052706659985</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707174</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H43" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139452802</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221588</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424834</v>
@@ -3952,19 +3952,19 @@
         <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X43" t="n">
         <v>194.0994530368233</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="44">
@@ -3986,10 +3986,10 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
         <v>255.2416659947559</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4034,16 +4034,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4135,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
         <v>117.0052706659985</v>
@@ -4147,13 +4147,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I46" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221584</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424834</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.83296563493207</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="C2" t="n">
-        <v>45.83296563493207</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="D2" t="n">
-        <v>27.43894235510149</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="E2" t="n">
-        <v>26.79633067279662</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="F2" t="n">
-        <v>19.85082992359315</v>
+        <v>65.89483143891454</v>
       </c>
       <c r="G2" t="n">
-        <v>1.456806643762581</v>
+        <v>51.86735850102494</v>
       </c>
       <c r="H2" t="n">
-        <v>1.456806643762581</v>
+        <v>51.86735850102494</v>
       </c>
       <c r="I2" t="n">
-        <v>1.456806643762581</v>
+        <v>51.86735850102494</v>
       </c>
       <c r="J2" t="n">
-        <v>1.456806643762581</v>
+        <v>51.86735850102494</v>
       </c>
       <c r="K2" t="n">
-        <v>1.456806643762581</v>
+        <v>40.97295687358862</v>
       </c>
       <c r="L2" t="n">
-        <v>1.456806643762581</v>
+        <v>28.46417319695662</v>
       </c>
       <c r="M2" t="n">
-        <v>19.48478886032453</v>
+        <v>46.49215541351583</v>
       </c>
       <c r="N2" t="n">
-        <v>37.51277107688647</v>
+        <v>64.52013763007504</v>
       </c>
       <c r="O2" t="n">
-        <v>45.83296563493207</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="P2" t="n">
-        <v>45.83296563493207</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.83296563493207</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="R2" t="n">
-        <v>45.83296563493207</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="S2" t="n">
-        <v>45.83296563493207</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="T2" t="n">
-        <v>45.83296563493207</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="U2" t="n">
-        <v>45.83296563493207</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="V2" t="n">
-        <v>45.83296563493207</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="W2" t="n">
-        <v>45.83296563493207</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="X2" t="n">
-        <v>45.83296563493207</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="Y2" t="n">
-        <v>45.83296563493207</v>
+        <v>72.84033218811801</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.05228562846791</v>
+        <v>53.94296409154349</v>
       </c>
       <c r="C3" t="n">
-        <v>36.05228562846791</v>
+        <v>35.54894081171571</v>
       </c>
       <c r="D3" t="n">
-        <v>36.05228562846791</v>
+        <v>35.54894081171571</v>
       </c>
       <c r="E3" t="n">
-        <v>17.65826234863734</v>
+        <v>35.54894081171571</v>
       </c>
       <c r="F3" t="n">
-        <v>1.456806643762581</v>
+        <v>35.54894081171571</v>
       </c>
       <c r="G3" t="n">
-        <v>1.456806643762581</v>
+        <v>35.54894081171571</v>
       </c>
       <c r="H3" t="n">
-        <v>1.456806643762581</v>
+        <v>35.54894081171571</v>
       </c>
       <c r="I3" t="n">
-        <v>1.456806643762581</v>
+        <v>35.54894081171571</v>
       </c>
       <c r="J3" t="n">
-        <v>1.456806643762581</v>
+        <v>17.15491753188793</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032453</v>
+        <v>19.48478886032157</v>
       </c>
       <c r="M3" t="n">
-        <v>26.23887646228905</v>
+        <v>37.51277107688078</v>
       </c>
       <c r="N3" t="n">
-        <v>44.26685867885099</v>
+        <v>44.26685867884427</v>
       </c>
       <c r="O3" t="n">
-        <v>62.29484089541294</v>
+        <v>62.29484089540348</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218812907</v>
+        <v>72.84033218811801</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.84033218812907</v>
+        <v>54.44630890829023</v>
       </c>
       <c r="R3" t="n">
-        <v>72.84033218812907</v>
+        <v>53.94296409154349</v>
       </c>
       <c r="S3" t="n">
-        <v>72.84033218812907</v>
+        <v>53.94296409154349</v>
       </c>
       <c r="T3" t="n">
-        <v>54.44630890829849</v>
+        <v>53.94296409154349</v>
       </c>
       <c r="U3" t="n">
-        <v>54.44630890829849</v>
+        <v>53.94296409154349</v>
       </c>
       <c r="V3" t="n">
-        <v>54.44630890829849</v>
+        <v>53.94296409154349</v>
       </c>
       <c r="W3" t="n">
-        <v>54.44630890829849</v>
+        <v>53.94296409154349</v>
       </c>
       <c r="X3" t="n">
-        <v>54.44630890829849</v>
+        <v>53.94296409154349</v>
       </c>
       <c r="Y3" t="n">
-        <v>54.44630890829849</v>
+        <v>53.94296409154349</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="C4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="D4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="E4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="F4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="G4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="K4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="L4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="M4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="N4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="O4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="P4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="R4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="S4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="T4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="U4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="V4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="W4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="X4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.456806643762581</v>
+        <v>1.45680664376236</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148.882041212413</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="C5" t="n">
-        <v>148.882041212413</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="D5" t="n">
-        <v>148.882041212413</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="E5" t="n">
-        <v>148.882041212413</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="F5" t="n">
-        <v>141.9365404632096</v>
+        <v>81.2472951715674</v>
       </c>
       <c r="G5" t="n">
-        <v>91.63855356712406</v>
+        <v>67.40151672936742</v>
       </c>
       <c r="H5" t="n">
-        <v>46.41914195758014</v>
+        <v>67.40151672936742</v>
       </c>
       <c r="I5" t="n">
-        <v>46.41914195758014</v>
+        <v>67.40151672936742</v>
       </c>
       <c r="J5" t="n">
-        <v>46.41914195758014</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="K5" t="n">
-        <v>46.41914195758014</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="L5" t="n">
-        <v>62.2614493974929</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M5" t="n">
-        <v>111.5585063543463</v>
+        <v>69.12296495893611</v>
       </c>
       <c r="N5" t="n">
-        <v>160.8555633111997</v>
+        <v>118.4200219157895</v>
       </c>
       <c r="O5" t="n">
-        <v>199.1800281084985</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="P5" t="n">
-        <v>199.1800281084985</v>
+        <v>154.9161459087924</v>
       </c>
       <c r="Q5" t="n">
-        <v>199.1800281084985</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="R5" t="n">
-        <v>199.1800281084985</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="S5" t="n">
-        <v>148.882041212413</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="T5" t="n">
-        <v>148.882041212413</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="U5" t="n">
-        <v>148.882041212413</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="V5" t="n">
-        <v>148.882041212413</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="W5" t="n">
-        <v>148.882041212413</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="X5" t="n">
-        <v>148.882041212413</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="Y5" t="n">
-        <v>148.882041212413</v>
+        <v>104.6181590127069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.28158745825545</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="C6" t="n">
-        <v>54.28158745825545</v>
+        <v>151.23507643877</v>
       </c>
       <c r="D6" t="n">
-        <v>54.28158745825545</v>
+        <v>151.23507643877</v>
       </c>
       <c r="E6" t="n">
-        <v>3.98360056216997</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="F6" t="n">
-        <v>3.98360056216997</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="G6" t="n">
-        <v>3.98360056216997</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="H6" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="I6" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4653,7 +4653,7 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>99.60319867417761</v>
+        <v>71.84601783796413</v>
       </c>
       <c r="N6" t="n">
         <v>121.1430747948175</v>
@@ -4677,19 +4677,19 @@
         <v>167.8492079802444</v>
       </c>
       <c r="U6" t="n">
-        <v>154.8775612504264</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="V6" t="n">
-        <v>104.5795743543409</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="W6" t="n">
-        <v>54.28158745825545</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="X6" t="n">
-        <v>54.28158745825545</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.28158745825545</v>
+        <v>167.8492079802444</v>
       </c>
     </row>
     <row r="7">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="C8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="D8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="E8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="F8" t="n">
-        <v>216.1743800524077</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="G8" t="n">
-        <v>202.6504362700968</v>
+        <v>140.996681329578</v>
       </c>
       <c r="H8" t="n">
-        <v>122.2141240472905</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993892</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="J8" t="n">
         <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687554</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773416</v>
+        <v>97.73708609773399</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083929</v>
@@ -4841,13 +4841,13 @@
         <v>336.3649920389078</v>
       </c>
       <c r="W8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="X8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389078</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>252.2806879605667</v>
+        <v>325.8554698928814</v>
       </c>
       <c r="C9" t="n">
-        <v>252.2806879605667</v>
+        <v>325.8554698928814</v>
       </c>
       <c r="D9" t="n">
-        <v>252.2806879605667</v>
+        <v>325.8554698928814</v>
       </c>
       <c r="E9" t="n">
-        <v>252.2806879605667</v>
+        <v>255.979411211663</v>
       </c>
       <c r="F9" t="n">
-        <v>252.2806879605667</v>
+        <v>142.7342999743664</v>
       </c>
       <c r="G9" t="n">
-        <v>139.0355767232701</v>
+        <v>142.7342999743664</v>
       </c>
       <c r="H9" t="n">
-        <v>104.2676850340409</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="I9" t="n">
         <v>39.35570072784915</v>
@@ -4884,13 +4884,13 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>36.22166818534551</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L9" t="n">
-        <v>119.1887676792232</v>
+        <v>91.93611230387162</v>
       </c>
       <c r="M9" t="n">
-        <v>230.1803012028977</v>
+        <v>202.927645827546</v>
       </c>
       <c r="N9" t="n">
         <v>287.4309731640694</v>
@@ -4902,31 +4902,31 @@
         <v>448.4506404996946</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996946</v>
+        <v>439.100581130178</v>
       </c>
       <c r="R9" t="n">
-        <v>365.5257991978633</v>
+        <v>439.100581130178</v>
       </c>
       <c r="S9" t="n">
-        <v>365.5257991978633</v>
+        <v>439.100581130178</v>
       </c>
       <c r="T9" t="n">
-        <v>365.5257991978633</v>
+        <v>439.100581130178</v>
       </c>
       <c r="U9" t="n">
-        <v>365.5257991978633</v>
+        <v>439.100581130178</v>
       </c>
       <c r="V9" t="n">
-        <v>365.5257991978633</v>
+        <v>439.100581130178</v>
       </c>
       <c r="W9" t="n">
-        <v>365.5257991978633</v>
+        <v>439.100581130178</v>
       </c>
       <c r="X9" t="n">
-        <v>365.5257991978633</v>
+        <v>325.8554698928814</v>
       </c>
       <c r="Y9" t="n">
-        <v>365.5257991978633</v>
+        <v>325.8554698928814</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="C10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="E10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="L10" t="n">
         <v>8.969012809993892</v>
@@ -4999,13 +4999,13 @@
         <v>12.63101027343186</v>
       </c>
       <c r="W10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="X10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1252.833343223199</v>
+        <v>1405.526882613611</v>
       </c>
       <c r="C11" t="n">
-        <v>883.8708262827877</v>
+        <v>1036.564365673199</v>
       </c>
       <c r="D11" t="n">
-        <v>525.6051276760372</v>
+        <v>678.2986670664488</v>
       </c>
       <c r="E11" t="n">
-        <v>525.6051276760372</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F11" t="n">
-        <v>525.6051276760372</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>110.5326775210342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794326</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2755.806928794326</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>2403.038273524212</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>2029.572515263132</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y11" t="n">
-        <v>1639.433183287321</v>
+        <v>1792.126722677733</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064539</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>945.3964936596568</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C13" t="n">
-        <v>776.460310731758</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D13" t="n">
-        <v>626.3436713194222</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E13" t="n">
-        <v>478.4305777370292</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>331.5406302391189</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5206,7 +5206,7 @@
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.608663915319</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.595793738165</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.178623701204</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.189072803187</v>
+        <v>1128.685788900473</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.3964936596568</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1673.50322457744</v>
+        <v>1434.463568804397</v>
       </c>
       <c r="C14" t="n">
-        <v>1673.50322457744</v>
+        <v>1434.463568804397</v>
       </c>
       <c r="D14" t="n">
-        <v>1315.237525970689</v>
+        <v>1076.197870197646</v>
       </c>
       <c r="E14" t="n">
-        <v>929.4492733724453</v>
+        <v>1076.197870197646</v>
       </c>
       <c r="F14" t="n">
-        <v>518.4633685828378</v>
+        <v>665.2119654080389</v>
       </c>
       <c r="G14" t="n">
-        <v>103.7230475307833</v>
+        <v>250.4716443559843</v>
       </c>
       <c r="H14" t="n">
-        <v>103.7230475307833</v>
+        <v>103.7230475307835</v>
       </c>
       <c r="I14" t="n">
         <v>74.53055601169282</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773513</v>
+        <v>291.0377674773517</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720055969</v>
+        <v>666.2644720055978</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645696</v>
+        <v>1168.668140645697</v>
       </c>
       <c r="M14" t="n">
         <v>1759.358462275282</v>
@@ -5294,10 +5294,10 @@
         <v>2922.039463163068</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140396</v>
+        <v>3363.623974140397</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049505</v>
+        <v>3647.062805049506</v>
       </c>
       <c r="R14" t="n">
         <v>3726.527800584641</v>
@@ -5309,7 +5309,7 @@
         <v>3522.003948117022</v>
       </c>
       <c r="U14" t="n">
-        <v>3268.500041719094</v>
+        <v>3268.500041719095</v>
       </c>
       <c r="V14" t="n">
         <v>2937.437154375524</v>
@@ -5321,7 +5321,7 @@
         <v>2211.20274084433</v>
       </c>
       <c r="Y14" t="n">
-        <v>2060.103064641562</v>
+        <v>1821.063408868519</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>74.53055601169282</v>
       </c>
       <c r="J15" t="n">
-        <v>184.6629209807612</v>
+        <v>74.53055601169282</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0514990628275</v>
+        <v>340.9191340937591</v>
       </c>
       <c r="L15" t="n">
-        <v>855.566357841707</v>
+        <v>745.4339928726386</v>
       </c>
       <c r="M15" t="n">
-        <v>1346.972986475662</v>
+        <v>1236.840621506593</v>
       </c>
       <c r="N15" t="n">
-        <v>1574.181838018305</v>
+        <v>1755.661966290177</v>
       </c>
       <c r="O15" t="n">
-        <v>2026.582213319538</v>
+        <v>2208.06234159141</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.340332577118</v>
+        <v>2551.82046084899</v>
       </c>
       <c r="Q15" t="n">
-        <v>2550.214335272919</v>
+        <v>2560.886573990975</v>
       </c>
       <c r="R15" t="n">
         <v>2560.886573990975</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>702.8031455757184</v>
+        <v>633.3153864141109</v>
       </c>
       <c r="C16" t="n">
-        <v>533.8669626478111</v>
+        <v>610.2982849023368</v>
       </c>
       <c r="D16" t="n">
-        <v>533.8669626478111</v>
+        <v>460.1816454900011</v>
       </c>
       <c r="E16" t="n">
-        <v>533.8669626478111</v>
+        <v>312.268551907608</v>
       </c>
       <c r="F16" t="n">
-        <v>386.9770151499009</v>
+        <v>312.268551907608</v>
       </c>
       <c r="G16" t="n">
-        <v>219.4231602062501</v>
+        <v>312.268551907608</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53055601169282</v>
+        <v>167.3759477130505</v>
       </c>
       <c r="I16" t="n">
         <v>74.53055601169282</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525467</v>
+        <v>129.9765865525468</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923165</v>
+        <v>350.9282837923164</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553095</v>
+        <v>689.1968198553093</v>
       </c>
       <c r="M16" t="n">
-        <v>1056.242685479732</v>
+        <v>1056.242685479731</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229306</v>
+        <v>1419.995637229305</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776856</v>
+        <v>1739.964067776855</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135871</v>
+        <v>1990.23165413587</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389592</v>
+        <v>2080.068878389591</v>
       </c>
       <c r="R16" t="n">
-        <v>1998.137825765664</v>
+        <v>1996.937179304782</v>
       </c>
       <c r="S16" t="n">
-        <v>1809.048285989628</v>
+        <v>1807.847639528746</v>
       </c>
       <c r="T16" t="n">
-        <v>1587.918228653392</v>
+        <v>1807.847639528746</v>
       </c>
       <c r="U16" t="n">
-        <v>1587.918228653392</v>
+        <v>1807.847639528746</v>
       </c>
       <c r="V16" t="n">
-        <v>1333.233740447505</v>
+        <v>1553.163151322859</v>
       </c>
       <c r="W16" t="n">
-        <v>1333.233740447505</v>
+        <v>1263.745981285898</v>
       </c>
       <c r="X16" t="n">
-        <v>1105.244189549488</v>
+        <v>1035.756430387881</v>
       </c>
       <c r="Y16" t="n">
-        <v>884.451610405958</v>
+        <v>814.9638512443506</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112809</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497866</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216584</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796694</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511635</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511635</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076839</v>
@@ -5519,46 +5519,46 @@
         <v>766.6831886951459</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050966</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746742</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.77159888976</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233293</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767234</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755818</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924553</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283571</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400168</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382062</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.8957634217718</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511635</v>
       </c>
       <c r="J18" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835863</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334511</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277781</v>
+        <v>973.397189927779</v>
       </c>
       <c r="M18" t="n">
-        <v>973.3971899277781</v>
+        <v>1522.315654538069</v>
       </c>
       <c r="N18" t="n">
-        <v>1551.252537854181</v>
+        <v>2100.171002464472</v>
       </c>
       <c r="O18" t="n">
-        <v>2057.657492802431</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P18" t="n">
-        <v>2444.759048354587</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502113</v>
+        <v>872.8624197502114</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147773</v>
+        <v>735.8557341477731</v>
       </c>
       <c r="D19" t="n">
         <v>617.6685920609059</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039815</v>
+        <v>501.6849958039814</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315397</v>
+        <v>386.7245456315396</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749453</v>
       </c>
       <c r="H19" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511635</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042787</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L19" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902793</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R19" t="n">
         <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T19" t="n">
         <v>2144.90183912767</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237504</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X19" t="n">
         <v>1211.444469073044</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="20">
@@ -5735,46 +5735,46 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511635</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511635</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951462</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050966</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746741</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889758</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233292</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767233</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755818</v>
       </c>
       <c r="S20" t="n">
         <v>4188.091007924548</v>
@@ -5786,16 +5786,16 @@
         <v>3795.851627400163</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511635</v>
       </c>
       <c r="J21" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835864</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334512</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277792</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538069</v>
       </c>
       <c r="N21" t="n">
-        <v>2100.171002464469</v>
+        <v>1662.137679823381</v>
       </c>
       <c r="O21" t="n">
-        <v>2100.171002464469</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502123</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477723</v>
+        <v>735.855734147774</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609068</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039822</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H22" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511635</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443617</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902795</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313938</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028691</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352545</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237504</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357086</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645594</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073045</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112809</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497866</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216584</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796689</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511625</v>
@@ -5999,40 +5999,40 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382062</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177175</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
-        <v>216.5575109835861</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334507</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L24" t="n">
-        <v>850.6694118551787</v>
+        <v>922.4654228388462</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551787</v>
+        <v>1471.383887449135</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781581</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729832</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D25" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042805</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443632</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902807</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313938</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R25" t="n">
         <v>2487.049233352544</v>
@@ -6203,34 +6203,34 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G26" t="n">
         <v>342.800273616284</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J26" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
         <v>2001.213713746739</v>
@@ -6248,28 +6248,28 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J27" t="n">
         <v>216.557510983586</v>
@@ -6309,22 +6309,22 @@
         <v>519.5985603334506</v>
       </c>
       <c r="L27" t="n">
-        <v>519.5985603334506</v>
+        <v>922.4654228388462</v>
       </c>
       <c r="M27" t="n">
-        <v>1068.51702494374</v>
+        <v>1471.383887449135</v>
       </c>
       <c r="N27" t="n">
-        <v>1646.372372870142</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O27" t="n">
-        <v>2152.777327818393</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502066</v>
+        <v>872.8624197502086</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477682</v>
+        <v>735.8557341477701</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609009</v>
+        <v>617.6685920609029</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039763</v>
+        <v>501.6849958039783</v>
       </c>
       <c r="F28" t="n">
-        <v>386.724545631539</v>
+        <v>386.7245456315364</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749422</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897911</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J28" t="n">
         <v>185.1742787042784</v>
@@ -6388,7 +6388,7 @@
         <v>459.528702044361</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6397,13 +6397,13 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
         <v>2487.049233352542</v>
@@ -6412,22 +6412,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
         <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645589</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073039</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254978</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="29">
@@ -6449,55 +6449,55 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796676</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G29" t="n">
         <v>342.800273616284</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400164</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382062</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437416</v>
@@ -6534,10 +6534,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
         <v>216.557510983586</v>
@@ -6549,19 +6549,19 @@
         <v>973.3971899277781</v>
       </c>
       <c r="M30" t="n">
-        <v>973.3971899277781</v>
+        <v>1471.383887449135</v>
       </c>
       <c r="N30" t="n">
-        <v>1551.252537854181</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>2057.657492802431</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502083</v>
+        <v>872.8624197502115</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477699</v>
+        <v>735.855734147773</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609027</v>
+        <v>617.6685920609057</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039781</v>
+        <v>501.684995803981</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749446</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897933</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6634,37 +6634,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
         <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127672</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237504</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357086</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073045</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="32">
@@ -6680,25 +6680,25 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796671</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
         <v>766.6831886951452</v>
@@ -6707,43 +6707,43 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J33" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
-        <v>216.557510983586</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="L33" t="n">
-        <v>670.3561405779135</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="M33" t="n">
-        <v>1219.274605188203</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N33" t="n">
         <v>1428.524759781582</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E34" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315382</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G34" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897927</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
         <v>1709.719201354973</v>
@@ -6877,31 +6877,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
         <v>337.4933016076837</v>
@@ -6941,25 +6941,25 @@
         <v>766.6831886951452</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N35" t="n">
         <v>2681.771598889756</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S35" t="n">
         <v>4188.091007924547</v>
@@ -7008,34 +7008,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.626315333738</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O36" t="n">
-        <v>2322.031270281988</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502103</v>
+        <v>872.862419750211</v>
       </c>
       <c r="C37" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039809</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315392</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074945</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897937</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
         <v>459.5287020443611</v>
@@ -7102,16 +7102,16 @@
         <v>857.3827676902787</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597206</v>
@@ -7123,10 +7123,10 @@
         <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357084</v>
@@ -7135,10 +7135,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E38" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796679</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511626</v>
@@ -7172,10 +7172,10 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050964</v>
@@ -7202,22 +7202,22 @@
         <v>4188.091007924549</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>519.5985603334506</v>
       </c>
       <c r="L39" t="n">
-        <v>850.6694118551798</v>
+        <v>922.4654228388462</v>
       </c>
       <c r="M39" t="n">
-        <v>850.6694118551798</v>
+        <v>1471.383887449135</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781582</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502083</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477717</v>
+        <v>735.85573414777</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609028</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749446</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511626</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
         <v>2392.455631028688</v>
@@ -7354,10 +7354,10 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127668</v>
@@ -7369,13 +7369,13 @@
         <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E41" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796679</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J41" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050964</v>
@@ -7421,13 +7421,13 @@
         <v>2001.21371374674</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.90714476723</v>
@@ -7439,7 +7439,7 @@
         <v>4188.091007924549</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U41" t="n">
         <v>3795.851627400163</v>
@@ -7454,7 +7454,7 @@
         <v>2834.342818501804</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J42" t="n">
         <v>216.557510983586</v>
@@ -7494,22 +7494,22 @@
         <v>519.5985603334506</v>
       </c>
       <c r="L42" t="n">
-        <v>519.5985603334506</v>
+        <v>922.4654228388462</v>
       </c>
       <c r="M42" t="n">
-        <v>1068.51702494374</v>
+        <v>1471.383887449135</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.372372870142</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502086</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477702</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609031</v>
       </c>
       <c r="E43" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039785</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315367</v>
       </c>
       <c r="G43" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749424</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897927</v>
+        <v>140.057470989791</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162839</v>
@@ -7652,46 +7652,46 @@
         <v>766.6831886951454</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R44" t="n">
         <v>4249.020448755813</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U44" t="n">
         <v>3795.851627400163</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7731,22 @@
         <v>519.5985603334506</v>
       </c>
       <c r="L45" t="n">
-        <v>688.8525027970462</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.626315333738</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O45" t="n">
-        <v>2322.031270281988</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2487.272558016626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609052</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G46" t="n">
         <v>251.2943450749445</v>
@@ -7804,28 +7804,28 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313938</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R46" t="n">
         <v>2487.049233352544</v>
@@ -7834,10 +7834,10 @@
         <v>2333.272818966197</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
         <v>1664.992195357084</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272544</v>
       </c>
       <c r="K25" t="n">
         <v>106.7437663446525</v>
@@ -10525,7 +10525,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775269</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658809</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11467,7 +11467,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
-        <v>163.0416663658847</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>224.7146604589763</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>251.027408909358</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292581</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004722</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761691</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056128</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>200.6449018484455</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>215.2812835133838</v>
       </c>
     </row>
     <row r="14">
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2403613834999</v>
+        <v>145.9592505265512</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740603</v>
+        <v>101.6950537740604</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>236.6492592153122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>144.4598906019715</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.916937784344</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.188639996272173</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2037931948047</v>
+        <v>286.2037931948048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-5.317986051522893e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-5.346123543858994e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.012523398458143e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.584510300745023e-12</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.614548743120394e-12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.117417352565099e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.629008122312371e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>4.376943252282217e-12</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>5.258016244624741e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2.41229258790554e-12</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867131.4025875982</v>
+        <v>867131.4025875976</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913126.0855100303</v>
+        <v>913126.0855100302</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1040940.86749065</v>
+        <v>1040940.867490651</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1040940.86749065</v>
+        <v>1040940.867490651</v>
       </c>
     </row>
     <row r="9">
@@ -26320,40 +26320,40 @@
         <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.098970921</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="F2" t="n">
         <v>359394.9721398936</v>
       </c>
       <c r="G2" t="n">
-        <v>410520.884932142</v>
+        <v>410520.8849321423</v>
       </c>
       <c r="H2" t="n">
+        <v>410520.8849321424</v>
+      </c>
+      <c r="I2" t="n">
+        <v>410520.8849321423</v>
+      </c>
+      <c r="J2" t="n">
         <v>410520.8849321421</v>
       </c>
-      <c r="I2" t="n">
-        <v>410520.8849321421</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>410520.8849321418</v>
       </c>
-      <c r="K2" t="n">
-        <v>410520.8849321421</v>
-      </c>
       <c r="L2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321423</v>
       </c>
       <c r="M2" t="n">
         <v>410520.884932142</v>
       </c>
       <c r="N2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321421</v>
       </c>
       <c r="O2" t="n">
-        <v>410520.8849321419</v>
+        <v>410520.8849321421</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.8849321423</v>
+        <v>410520.884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321832</v>
+        <v>345405.5970321785</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876437</v>
+        <v>50948.63134876884</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429537</v>
+        <v>707780.8576429536</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654113</v>
+        <v>93369.88484654122</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975359</v>
+        <v>143964.0818975369</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>2.968358785437886e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757542</v>
+        <v>4764.558968757007</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908503</v>
+        <v>8128.948714909003</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.1990219461</v>
+        <v>41060.1990219463</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383015</v>
+        <v>179249.6449383014</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.1543861313</v>
+        <v>24549.15438613127</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456876009</v>
+        <v>31434.59456876044</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348982.9265318201</v>
+        <v>348982.9265318215</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
@@ -26424,40 +26424,40 @@
         <v>305279.4906303398</v>
       </c>
       <c r="E4" t="n">
-        <v>15259.89878720243</v>
+        <v>15259.89878720224</v>
       </c>
       <c r="F4" t="n">
-        <v>15311.76636570065</v>
+        <v>15311.76636570053</v>
       </c>
       <c r="G4" t="n">
-        <v>46449.25880112078</v>
+        <v>46449.25880112071</v>
       </c>
       <c r="H4" t="n">
-        <v>46449.25880112079</v>
+        <v>46449.25880112071</v>
       </c>
       <c r="I4" t="n">
         <v>46449.25880112074</v>
       </c>
       <c r="J4" t="n">
-        <v>46449.25880112062</v>
+        <v>46449.25880112067</v>
       </c>
       <c r="K4" t="n">
-        <v>46449.25880112067</v>
+        <v>46449.2588011206</v>
       </c>
       <c r="L4" t="n">
-        <v>46449.25880112073</v>
+        <v>46449.25880112074</v>
       </c>
       <c r="M4" t="n">
+        <v>46449.25880112076</v>
+      </c>
+      <c r="N4" t="n">
         <v>46449.25880112068</v>
       </c>
-      <c r="N4" t="n">
-        <v>46449.2588011208</v>
-      </c>
       <c r="O4" t="n">
+        <v>46449.25880112068</v>
+      </c>
+      <c r="P4" t="n">
         <v>46449.25880112076</v>
-      </c>
-      <c r="P4" t="n">
-        <v>46449.25880112074</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425682</v>
+        <v>42410.88882425657</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26476,40 +26476,40 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>82183.39720390688</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021554</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.4341021554</v>
       </c>
       <c r="I5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="J5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="K5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
+        <v>95106.43410215531</v>
+      </c>
+      <c r="M5" t="n">
         <v>95106.4341021553</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>95106.4341021553</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="N5" t="n">
-        <v>95106.43410215531</v>
       </c>
       <c r="O5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-326278.5274561186</v>
+        <v>-326278.5274561149</v>
       </c>
       <c r="C6" t="n">
-        <v>-18990.97185453564</v>
+        <v>-18990.97185454018</v>
       </c>
       <c r="D6" t="n">
         <v>-32815.49488505326</v>
       </c>
       <c r="E6" t="n">
-        <v>-456349.9980206285</v>
+        <v>-456697.6169504347</v>
       </c>
       <c r="F6" t="n">
-        <v>168529.923723745</v>
+        <v>168274.2941597837</v>
       </c>
       <c r="G6" t="n">
-        <v>125001.11013133</v>
+        <v>125001.1101313293</v>
       </c>
       <c r="H6" t="n">
         <v>268965.1920288661</v>
       </c>
       <c r="I6" t="n">
-        <v>268965.1920288658</v>
+        <v>268965.1920288675</v>
       </c>
       <c r="J6" t="n">
-        <v>264200.6330601083</v>
+        <v>264200.6330601091</v>
       </c>
       <c r="K6" t="n">
-        <v>260836.2433139576</v>
+        <v>260836.2433139569</v>
       </c>
       <c r="L6" t="n">
-        <v>227904.99300692</v>
+        <v>227904.9930069199</v>
       </c>
       <c r="M6" t="n">
-        <v>89715.54709056458</v>
+        <v>89715.54709056459</v>
       </c>
       <c r="N6" t="n">
-        <v>244416.0376427347</v>
+        <v>244416.0376427349</v>
       </c>
       <c r="O6" t="n">
-        <v>237530.5974601058</v>
+        <v>237530.5974601057</v>
       </c>
       <c r="P6" t="n">
-        <v>268965.1920288663</v>
+        <v>268965.192028866</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="K2" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="L2" t="n">
         <v>31.61020235221387</v>
       </c>
       <c r="M2" t="n">
+        <v>31.61020235221389</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.61020235221382</v>
+      </c>
+      <c r="O2" t="n">
+        <v>31.61020235221382</v>
+      </c>
+      <c r="P2" t="n">
         <v>31.6102023522139</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221396</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221389</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228101</v>
+        <v>352.1154025228062</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26750,10 +26750,10 @@
         <v>1171.567643808272</v>
       </c>
       <c r="G3" t="n">
-        <v>1278.159870620123</v>
+        <v>1278.159870620124</v>
       </c>
       <c r="H3" t="n">
-        <v>1278.159870620123</v>
+        <v>1278.159870620124</v>
       </c>
       <c r="I3" t="n">
         <v>1278.159870620123</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703227</v>
+        <v>18.2100830470295</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,16 +26796,16 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461602</v>
+        <v>931.6319501461603</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188954</v>
       </c>
       <c r="H4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188954</v>
       </c>
       <c r="I4" t="n">
         <v>1062.255112188953</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228101</v>
+        <v>352.1154025228062</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074475796</v>
+        <v>44.74454074476188</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
@@ -26972,13 +26972,13 @@
         <v>81.79094321497359</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118513</v>
+        <v>106.5922268118522</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703227</v>
+        <v>18.2100830470295</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009236</v>
+        <v>31.58492398009512</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.288795277369</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438673</v>
+        <v>100.2304947438677</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427931</v>
+        <v>130.6231620427941</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703227</v>
+        <v>18.21008304702973</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009259</v>
+        <v>31.5849239800949</v>
       </c>
       <c r="L4" t="n">
-        <v>62.3176530977988</v>
+        <v>62.31765309779925</v>
       </c>
       <c r="M4" t="n">
-        <v>719.288795277369</v>
+        <v>719.2887952773688</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438678</v>
+        <v>100.2304947438679</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427928</v>
+        <v>130.6231620427941</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703227</v>
+        <v>18.2100830470295</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009236</v>
+        <v>31.58492398009512</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438673</v>
+        <v>100.2304947438677</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427931</v>
+        <v>130.6231620427941</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,31 +27382,31 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>336.4729585736507</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.29418450678</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>395.6771151614785</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>324.9779101918004</v>
+        <v>324.9779101918006</v>
       </c>
       <c r="I2" t="n">
-        <v>155.9033104517702</v>
+        <v>155.9033104517708</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107681</v>
+        <v>60.90377530107814</v>
       </c>
       <c r="K2" t="n">
-        <v>40.02794296996183</v>
+        <v>29.24248535880189</v>
       </c>
       <c r="L2" t="n">
-        <v>12.38369583986318</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,19 +27418,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855299</v>
+        <v>27.67667403855526</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.44336957621792</v>
+        <v>69.4433695762196</v>
       </c>
       <c r="R2" t="n">
-        <v>126.6666668443895</v>
+        <v>126.6666668443905</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365427</v>
+        <v>176.7634676365431</v>
       </c>
       <c r="T2" t="n">
-        <v>216.8993262493832</v>
+        <v>216.8993262493833</v>
       </c>
       <c r="U2" t="n">
         <v>251.2324097633065</v>
@@ -27455,34 +27455,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.3231006028351</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>154.4984159412862</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>139.4349974083687</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>129.0297712455579</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5861368634446</v>
       </c>
       <c r="H3" t="n">
-        <v>104.9207450255981</v>
+        <v>104.9207450255982</v>
       </c>
       <c r="I3" t="n">
-        <v>73.44590915279188</v>
+        <v>73.44590915279218</v>
       </c>
       <c r="J3" t="n">
-        <v>55.28179755587563</v>
+        <v>37.07171450884692</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924295</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27500,16 +27500,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.30284318956996</v>
+        <v>25.09276014254152</v>
       </c>
       <c r="R3" t="n">
-        <v>98.65548851006866</v>
+        <v>98.1571771414899</v>
       </c>
       <c r="S3" t="n">
-        <v>157.6151642200255</v>
+        <v>157.6151642200257</v>
       </c>
       <c r="T3" t="n">
-        <v>178.901871544785</v>
+        <v>197.1119545918173</v>
       </c>
       <c r="U3" t="n">
         <v>225.8915544296744</v>
@@ -27555,37 +27555,37 @@
         <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
-        <v>136.3554298199557</v>
+        <v>136.3554298199559</v>
       </c>
       <c r="J4" t="n">
-        <v>82.10359380956179</v>
+        <v>82.10359380956228</v>
       </c>
       <c r="K4" t="n">
-        <v>55.24219515018274</v>
+        <v>55.24219515018356</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48311410323768</v>
+        <v>40.48311410323873</v>
       </c>
       <c r="M4" t="n">
-        <v>39.39257270660812</v>
+        <v>39.39257270660923</v>
       </c>
       <c r="N4" t="n">
-        <v>30.51901051988129</v>
+        <v>30.51901051988239</v>
       </c>
       <c r="O4" t="n">
-        <v>48.70751749406159</v>
+        <v>48.7075174940626</v>
       </c>
       <c r="P4" t="n">
-        <v>60.93221199728757</v>
+        <v>60.93221199728842</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.33557584850152</v>
+        <v>98.33557584850212</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545823</v>
+        <v>148.7431818545826</v>
       </c>
       <c r="S4" t="n">
-        <v>212.9509385839194</v>
+        <v>212.9509385839195</v>
       </c>
       <c r="T4" t="n">
         <v>225.2325691137615</v>
@@ -27625,22 +27625,22 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>383.7388905389833</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>363.9123136306533</v>
-      </c>
       <c r="H5" t="n">
-        <v>278.3685217319107</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
         <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>17.14684397594775</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27655,16 +27655,16 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.810057396252972</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.01861771953256</v>
+        <v>0.2236106924079309</v>
       </c>
       <c r="R5" t="n">
         <v>115.3674336481769</v>
       </c>
       <c r="S5" t="n">
-        <v>122.8695009220968</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
         <v>216.1119122710508</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>156.260508762256</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27710,13 +27710,13 @@
         <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
-        <v>103.9912405093721</v>
+        <v>54.19623348224745</v>
       </c>
       <c r="I6" t="n">
         <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358476</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27749,13 +27749,13 @@
         <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
-        <v>213.0432923925209</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
-        <v>183.0055801223006</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>201.899976133795</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27862,19 +27862,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>325.5740782643986</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
-        <v>240.2407608062978</v>
+        <v>207.7600497819524</v>
       </c>
       <c r="I8" t="n">
-        <v>24.57246563410433</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>237.1283085924894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.42052352494369</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,19 +27938,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>88.46778236099478</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>32.95655226846023</v>
       </c>
       <c r="G9" t="n">
-        <v>24.20675900740719</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
-        <v>67.92460048171516</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27974,10 +27974,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>93.66032507855383</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28038,7 +28038,7 @@
         <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>7.238823902544752</v>
+        <v>3.613446413741165</v>
       </c>
       <c r="M10" t="n">
         <v>4.341129883412066</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>282.8976208477874</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28248,25 +28248,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>7.817924085884443e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28293,16 +28293,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605477</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605474</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605488</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605491</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221376</v>
+        <v>31.6102023522138</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="C29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="D29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="E29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="F29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="G29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="H29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605491</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="T29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="U29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="V29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="W29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="X29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="C31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="D31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="E31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="F31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="G31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="H31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="I31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="J31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="K31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="L31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="M31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="N31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="O31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="P31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="R31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="S31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="T31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="U31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="V31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="W31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="X31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221373</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605491</v>
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605491</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221382</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605491</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605491</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.415539306624361</v>
+        <v>1.415539306624345</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396674</v>
+        <v>14.49689192396658</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863574</v>
+        <v>54.57257911863513</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256095</v>
+        <v>120.1421292256081</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0619080750187</v>
+        <v>180.0619080750167</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301241</v>
+        <v>223.3827191301216</v>
       </c>
       <c r="M2" t="n">
-        <v>248.556316274305</v>
+        <v>248.5563162743022</v>
       </c>
       <c r="N2" t="n">
-        <v>247.6231466436232</v>
+        <v>247.6231466436204</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490055</v>
+        <v>238.5024483490029</v>
       </c>
       <c r="P2" t="n">
-        <v>203.5563217167166</v>
+        <v>203.5563217167143</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.8623202982316</v>
+        <v>152.8623202982299</v>
       </c>
       <c r="R2" t="n">
-        <v>88.9188709697426</v>
+        <v>88.9188709697416</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970266</v>
+        <v>32.2566019497023</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748144</v>
+        <v>6.196523314748075</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299489</v>
+        <v>0.1132431445299476</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660444</v>
+        <v>0.7573802997660359</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898377</v>
+        <v>7.314699210898295</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720811</v>
+        <v>26.07647084720782</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079107</v>
+        <v>71.55582911079027</v>
       </c>
       <c r="K3" t="n">
-        <v>122.300309195116</v>
+        <v>122.3003091951147</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269065</v>
+        <v>156.7644628269037</v>
       </c>
       <c r="M3" t="n">
-        <v>148.9563446310734</v>
+        <v>160.3441169690478</v>
       </c>
       <c r="N3" t="n">
-        <v>149.5517951303656</v>
+        <v>138.1640227923873</v>
       </c>
       <c r="O3" t="n">
-        <v>160.8063274914767</v>
+        <v>160.806327491474</v>
       </c>
       <c r="P3" t="n">
-        <v>144.6264188211142</v>
+        <v>144.6264188211126</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645156</v>
+        <v>96.6789308964505</v>
       </c>
       <c r="R3" t="n">
-        <v>47.0240154538953</v>
+        <v>47.02401545389478</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06800688381226</v>
+        <v>14.0680068838121</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004362</v>
+        <v>3.052774103004328</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039767</v>
+        <v>0.04982765130039712</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706411</v>
+        <v>0.634962201270634</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660794</v>
+        <v>5.645391207660732</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730256</v>
+        <v>19.09504510730234</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983432</v>
+        <v>44.89182762983382</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035264</v>
+        <v>73.77106302035182</v>
       </c>
       <c r="L4" t="n">
-        <v>94.4015621780006</v>
+        <v>94.40156217799955</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099693</v>
+        <v>99.53321124099583</v>
       </c>
       <c r="N4" t="n">
-        <v>97.1665339453519</v>
+        <v>97.16653394535081</v>
       </c>
       <c r="O4" t="n">
-        <v>89.7490209577812</v>
+        <v>89.74902095778019</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205186005</v>
+        <v>76.79579205185919</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094432</v>
+        <v>53.16942578094373</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258718</v>
+        <v>28.55020952258687</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305289</v>
+        <v>11.06565945305277</v>
       </c>
       <c r="T4" t="n">
-        <v>2.713020314520011</v>
+        <v>2.713020314519981</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748955</v>
+        <v>0.03463430188748916</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31373,10 +31373,10 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
-        <v>191.9290409491429</v>
+        <v>163.8914845489273</v>
       </c>
       <c r="N6" t="n">
-        <v>153.0991627102423</v>
+        <v>181.1367191104579</v>
       </c>
       <c r="O6" t="n">
         <v>192.3912514715691</v>
@@ -31604,7 +31604,7 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>165.3693736969364</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>222.3595307837911</v>
@@ -31613,7 +31613,7 @@
         <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>189.1706736602745</v>
+        <v>216.6986083828519</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628788</v>
@@ -32075,7 +32075,7 @@
         <v>86.76232079146166</v>
       </c>
       <c r="J15" t="n">
-        <v>238.0824397667357</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>406.9208107744259</v>
@@ -32087,7 +32087,7 @@
         <v>638.5043658755081</v>
       </c>
       <c r="N15" t="n">
-        <v>360.8456025304478</v>
+        <v>655.4036765111955</v>
       </c>
       <c r="O15" t="n">
         <v>599.5663205062955</v>
@@ -32096,10 +32096,10 @@
         <v>481.2048309068354</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999618</v>
+        <v>149.1394641284312</v>
       </c>
       <c r="R15" t="n">
-        <v>156.4595430731123</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>46.80744312762291</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171349</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879735</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043511</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383707</v>
+        <v>436.109432438371</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171643</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869759</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654306</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117601</v>
       </c>
       <c r="O17" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565686</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829633</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972016</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581563</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110797</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734509</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537078</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031965</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533504</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781109</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115858</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247275</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155585</v>
+        <v>596.936833915559</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879675</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160632</v>
+        <v>715.0339827160636</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578285</v>
+        <v>211.6584993001619</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892356</v>
       </c>
       <c r="Q18" t="n">
-        <v>226.9718386705481</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426487002</v>
       </c>
       <c r="T18" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047346</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216617</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092594</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051429</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838148</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151669</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692051</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754557</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696486</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246179</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381987</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636387</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227399</v>
       </c>
       <c r="S19" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227503</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925544</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1257206430118155</v>
+        <v>0.1257206430118156</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.13833113817135</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879735</v>
       </c>
       <c r="I20" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043512</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.109432438371</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171644</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086976</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654307</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117602</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565688</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829634</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972018</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581564</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110798</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734507</v>
+        <v>22.4930445573451</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.411066491053708</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031966</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533504</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.6561790978111</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115859</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247276</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155591</v>
       </c>
       <c r="M21" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879677</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583962</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578291</v>
       </c>
       <c r="P21" t="n">
-        <v>358.0756880380867</v>
+        <v>524.9860796892357</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426487003</v>
       </c>
       <c r="T21" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603674</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047346</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216617</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092594</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805143</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838148</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151667</v>
+        <v>267.784969615167</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692052</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754557</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696486</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.784092924618</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381988</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636388</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227399</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227503</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925545</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1257206430118155</v>
+        <v>0.1257206430118157</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171346</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879732</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I23" t="n">
         <v>198.095511204351</v>
@@ -32710,28 +32710,28 @@
         <v>436.1094324383707</v>
       </c>
       <c r="K23" t="n">
-        <v>653.614989517164</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869755</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654302</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117595</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565681</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P23" t="n">
-        <v>738.898440582963</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972014</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581562</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110797</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031964</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781105</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J24" t="n">
         <v>259.7437903115857</v>
@@ -32792,31 +32792,31 @@
         <v>443.9435090247272</v>
       </c>
       <c r="L24" t="n">
-        <v>472.9693813169732</v>
+        <v>545.490604532799</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160633</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578287</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892353</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877215</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486999</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T24" t="n">
-        <v>11.08140491603673</v>
+        <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
         <v>0.1808716798047345</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216616</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092593</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051425</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838147</v>
@@ -32874,16 +32874,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754555</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696484</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246178</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381986</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
         <v>193.0021404636386</v>
@@ -32892,10 +32892,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227501</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925538</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33029,7 +33029,7 @@
         <v>443.9435090247272</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>545.490604532799</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879671</v>
@@ -33041,13 +33041,13 @@
         <v>654.1164009578285</v>
       </c>
       <c r="P27" t="n">
-        <v>304.9379856603865</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33269,7 +33269,7 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>645.1509001052077</v>
       </c>
       <c r="N30" t="n">
         <v>715.0339827160632</v>
@@ -33278,13 +33278,13 @@
         <v>654.1164009578285</v>
       </c>
       <c r="P30" t="n">
-        <v>401.0186270906507</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33500,16 +33500,16 @@
         <v>259.7437903115857</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>223.8954149958786</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155585</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879671</v>
       </c>
       <c r="N33" t="n">
-        <v>342.7055046018986</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O33" t="n">
         <v>654.1164009578285</v>
@@ -33743,22 +33743,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>409.1782535983392</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160632</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578285</v>
+        <v>211.6584993001642</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486998</v>
@@ -33977,10 +33977,10 @@
         <v>443.9435090247272</v>
       </c>
       <c r="L39" t="n">
-        <v>472.9693813169744</v>
+        <v>545.490604532799</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160632</v>
@@ -33989,13 +33989,13 @@
         <v>654.1164009578285</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486998</v>
@@ -34214,7 +34214,7 @@
         <v>443.9435090247272</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>545.490604532799</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879671</v>
@@ -34223,16 +34223,16 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O42" t="n">
-        <v>434.0683069289798</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34451,7 +34451,7 @@
         <v>443.9435090247272</v>
       </c>
       <c r="L45" t="n">
-        <v>309.5179580259304</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879671</v>
@@ -34460,16 +34460,16 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691328</v>
+        <v>209.0440289417413</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486998</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703227</v>
+        <v>18.2100830470295</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703227</v>
+        <v>18.2100830470295</v>
       </c>
       <c r="O2" t="n">
-        <v>8.404236927318777</v>
+        <v>8.404236927316134</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703227</v>
+        <v>18.2100830470295</v>
       </c>
       <c r="M3" t="n">
-        <v>6.822310709055071</v>
+        <v>18.2100830470295</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21008304703227</v>
+        <v>6.822310709054031</v>
       </c>
       <c r="O3" t="n">
-        <v>18.21008304703227</v>
+        <v>18.2100830470295</v>
       </c>
       <c r="P3" t="n">
-        <v>10.65201140678397</v>
+        <v>10.65201140678235</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35021,10 +35021,10 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
+        <v>21.75745062690899</v>
+      </c>
+      <c r="N6" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21.75745062690899</v>
       </c>
       <c r="O6" t="n">
         <v>49.79500702712463</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.52793472257738</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>83.8051510039169</v>
@@ -35261,7 +35261,7 @@
         <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>57.82896157694119</v>
+        <v>85.35689629951858</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.2448131000691</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>269.079371800067</v>
@@ -35735,7 +35735,7 @@
         <v>496.3703319534898</v>
       </c>
       <c r="N15" t="n">
-        <v>229.5038904471144</v>
+        <v>524.0619644278622</v>
       </c>
       <c r="O15" t="n">
         <v>456.970076061851</v>
@@ -35744,10 +35744,10 @@
         <v>347.2304234925051</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.6909118139403</v>
+        <v>9.157690042409723</v>
       </c>
       <c r="R15" t="n">
-        <v>10.78003910914833</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540815</v>
+        <v>56.00609145540804</v>
       </c>
       <c r="K16" t="n">
-        <v>223.183532565424</v>
+        <v>223.1835325654239</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626192</v>
+        <v>341.6853899626191</v>
       </c>
       <c r="M16" t="n">
-        <v>370.753399620628</v>
+        <v>370.7533996206279</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894689</v>
+        <v>367.4272239894688</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965154</v>
+        <v>323.2004348965153</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767828</v>
+        <v>252.7955417767827</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335478</v>
+        <v>90.74467096335466</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116847</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721838</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169888</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381579</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151692</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348818</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227521</v>
       </c>
       <c r="R17" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440242</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449191</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503685</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356848</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>554.4630955659493</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327304</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133841</v>
+        <v>69.0622548557175</v>
       </c>
       <c r="P18" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749053</v>
       </c>
       <c r="Q18" t="n">
-        <v>86.99006458452661</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L19" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817351</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895101</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.451638701091</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116847</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721839</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169888</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.899754238158</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151692</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348821</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276939</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227522</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449192</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503686</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356849</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659493</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750629</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>511.5201565133847</v>
       </c>
       <c r="P21" t="n">
-        <v>224.1012806237565</v>
+        <v>391.0116722749054</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.125680141498</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817352</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895102</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010911</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908715</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721834</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169883</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381575</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151685</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348814</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276934</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227519</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R23" t="n">
         <v>107.185155544024</v>
@@ -36440,25 +36440,25 @@
         <v>306.1020700503682</v>
       </c>
       <c r="L24" t="n">
-        <v>334.415001537099</v>
+        <v>406.9362247529248</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N24" t="n">
-        <v>583.69227063273</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133842</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749051</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831113</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375752</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193579</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
@@ -36525,13 +36525,13 @@
         <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36677,7 +36677,7 @@
         <v>306.1020700503682</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>406.9362247529248</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659488</v>
@@ -36689,13 +36689,13 @@
         <v>511.5201565133841</v>
       </c>
       <c r="P27" t="n">
-        <v>170.9635782460562</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,13 +36756,13 @@
         <v>277.1256801414976</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
         <v>381.9794231908712</v>
@@ -36917,7 +36917,7 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>503.0168661831893</v>
       </c>
       <c r="N30" t="n">
         <v>583.6922706327299</v>
@@ -36926,13 +36926,13 @@
         <v>511.5201565133841</v>
       </c>
       <c r="P30" t="n">
-        <v>267.0442196763204</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,22 +36993,22 @@
         <v>277.1256801414976</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553057</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641579</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>132.906163644919</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>86.05397602151957</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356843</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659488</v>
       </c>
       <c r="N33" t="n">
-        <v>211.3637925185653</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O33" t="n">
         <v>511.5201565133841</v>
@@ -37245,7 +37245,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641593</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>687.4322072151685</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348797</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P35" t="n">
         <v>507.6654448276933</v>
@@ -37391,22 +37391,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>267.0442196763209</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327299</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133841</v>
+        <v>69.0622548557198</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>306.1020700503682</v>
       </c>
       <c r="L39" t="n">
-        <v>334.4150015371002</v>
+        <v>406.9362247529248</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327299</v>
@@ -37637,13 +37637,13 @@
         <v>511.5201565133841</v>
       </c>
       <c r="P39" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L40" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908698</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641582</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>306.1020700503682</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>406.9362247529248</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659488</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O42" t="n">
-        <v>291.4720624845354</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P42" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>306.1020700503682</v>
       </c>
       <c r="L45" t="n">
-        <v>170.9635782460562</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659488</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133841</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>69.0622548557198</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908735</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
         <v>138.4502995641581</v>
